--- a/data/theplatform_daum.xlsx
+++ b/data/theplatform_daum.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisungjang/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046CCE0-3AAD-5845-A941-F15571472D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Movie Comments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -304,12 +298,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,15 +311,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -371,23 +358,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,27 +440,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,24 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,14 +649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -748,26 +689,32 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -775,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -783,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -791,20 +738,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -812,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -820,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -828,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -836,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -844,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -852,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -860,20 +810,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -881,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -889,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -897,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -905,33 +858,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -939,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -947,7 +906,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -955,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -963,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -971,7 +930,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -979,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -987,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -995,20 +954,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1016,33 +978,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1050,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1058,7 +1026,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1066,7 +1034,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1074,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1082,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1090,7 +1058,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1098,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1106,20 +1074,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1127,7 +1098,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1135,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1143,7 +1114,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1151,7 +1122,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1159,7 +1130,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1167,7 +1138,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1175,7 +1146,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1183,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1191,7 +1162,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1199,7 +1170,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1207,7 +1178,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1215,20 +1186,23 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1236,7 +1210,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1244,7 +1218,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1252,7 +1226,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1260,7 +1234,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1268,46 +1242,55 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1315,7 +1298,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1323,7 +1306,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1331,7 +1314,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1339,7 +1322,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1347,7 +1330,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1355,7 +1338,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1363,7 +1346,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1371,25 +1354,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1397,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1405,149 +1394,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>